--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230303.4040066604</v>
+        <v>-232767.4674503656</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>83.979990144648</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>181.5204656885155</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>57.69070618592889</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>71.98153210089512</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>151.7982536983502</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>64.51496360667007</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>243.5875274224987</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>37.89796086990527</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>120.5643831243135</v>
+        <v>157.0756858499261</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>30.2223552332544</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>56.49518623012946</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>148.1185786361432</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>98.72106119199786</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922736</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>28.54004930888875</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,25 +1813,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365948</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0858001482978</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>140.3257100213657</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833811</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
         <v>124.3308255261727</v>
@@ -4144,16 +4144,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2044.207458949102</v>
+        <v>2230.937844028707</v>
       </c>
       <c r="C2" t="n">
-        <v>1675.244942008691</v>
+        <v>1861.975327088296</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.97924340194</v>
+        <v>1503.709628481545</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1117.921375883301</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>706.9354710936934</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>291.8630209386899</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3157.041712544418</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3157.041712544418</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>3157.041712544418</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W2" t="n">
-        <v>2804.273057274304</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X2" t="n">
-        <v>2430.807299013224</v>
+        <v>2621.077176004519</v>
       </c>
       <c r="Y2" t="n">
-        <v>2430.807299013224</v>
+        <v>2230.937844028707</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1854.58592980476</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.483062930404</v>
+        <v>1270.6800218501</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.798574724517</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1268.033402877527</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>882.2451502792824</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>471.2592454896748</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3079.557814111698</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2748.494926768127</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2395.726271498012</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2395.726271498012</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y5" t="n">
-        <v>2005.586939522201</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>979.7778095849316</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>810.8416266570247</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>1161.426274415171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855437</v>
+        <v>1753.263343671913</v>
       </c>
       <c r="C8" t="n">
-        <v>942.9472709150252</v>
+        <v>1384.300826731501</v>
       </c>
       <c r="D8" t="n">
-        <v>942.9472709150252</v>
+        <v>1026.035128124751</v>
       </c>
       <c r="E8" t="n">
-        <v>942.9472709150252</v>
+        <v>640.2468755265063</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4820,7 +4820,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>2139.863183736034</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4869,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.564938772426</v>
+        <v>561.0764108006842</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>561.0764108006842</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>410.9597713883485</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>410.9597713883485</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>410.9597713883485</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>243.2569347630674</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>97.03974798092523</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X10" t="n">
-        <v>788.0059827461959</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026657</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.6425904082687</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>470.7064074803617</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2322.851535155764</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.250070178706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.174843522904</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.490355317017</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.073185280056</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.083634382039</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.2910552385084</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>985.7836617409656</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553207</v>
+        <v>816.8474788130587</v>
       </c>
       <c r="D16" t="n">
-        <v>484.811296842985</v>
+        <v>666.730839400723</v>
       </c>
       <c r="E16" t="n">
-        <v>484.811296842985</v>
+        <v>518.8177458183299</v>
       </c>
       <c r="F16" t="n">
-        <v>484.811296842985</v>
+        <v>371.9277983204195</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>204.7316990352994</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.214256612753</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.224705714735</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1167.432126571205</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1405.737459147272</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1177.747908249255</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>956.9553291057244</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836312012</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7557007032943</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.340348461441</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>983.340348461441</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6373,7 +6373,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,19 +6464,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6491,22 +6491,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908939</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7436,10 +7436,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>113.087298698805</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>146.2272639536913</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>302.2857607487024</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>124.5310997715151</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>70.46607471595161</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>68.52575990662997</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>111.7546635373351</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856401</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>11.43719818829317</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>8.289762996846662</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>105.0969227051391</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788578</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028984</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837522</v>
@@ -26326,22 +26326,22 @@
         <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="J2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="J2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="K2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837523</v>
@@ -26350,10 +26350,10 @@
         <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.014195044670487e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42308.05352563446</v>
+        <v>42308.05352563438</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
@@ -26433,7 +26433,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
@@ -26442,22 +26442,22 @@
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="O4" t="n">
-        <v>13606.8081118428</v>
-      </c>
       <c r="P4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1204265.773211721</v>
+        <v>-1204486.904525697</v>
       </c>
       <c r="C6" t="n">
-        <v>107162.8802545186</v>
+        <v>107162.8802545188</v>
       </c>
       <c r="D6" t="n">
         <v>107162.8802545187</v>
       </c>
       <c r="E6" t="n">
-        <v>-137461.8248593529</v>
+        <v>-137496.5627847886</v>
       </c>
       <c r="F6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="G6" t="n">
-        <v>187950.6369480023</v>
+        <v>187915.8990225666</v>
       </c>
       <c r="H6" t="n">
-        <v>187950.6369480023</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="I6" t="n">
-        <v>187950.6369480023</v>
+        <v>187915.8990225668</v>
       </c>
       <c r="J6" t="n">
-        <v>-29580.56544927509</v>
+        <v>-29615.30337471061</v>
       </c>
       <c r="K6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225669</v>
       </c>
       <c r="L6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="M6" t="n">
-        <v>102895.6090124906</v>
+        <v>102860.8710870549</v>
       </c>
       <c r="N6" t="n">
-        <v>187950.6369480024</v>
+        <v>187915.8990225666</v>
       </c>
       <c r="O6" t="n">
-        <v>187950.6369480023</v>
+        <v>187915.8990225667</v>
       </c>
       <c r="P6" t="n">
         <v>163701.1624766227</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>297.9503799276138</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>46.95520796871057</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>147.5674171752741</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>134.4135845072626</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>346.4067620467834</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>7.407644536403268</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>110.7175121483071</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>286.3116626173979</v>
+        <v>249.8003598917853</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>66.13006517658368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>142.2354048423642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669242</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999003</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,7 +38190,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.686904791938</v>
